--- a/natmiOut/OldD2/LR-pairs_lrc2p/Bmp6-Bmpr2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Bmp6-Bmpr2.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.14970775752669</v>
+        <v>6.715603</v>
       </c>
       <c r="H2">
-        <v>6.14970775752669</v>
+        <v>13.431206</v>
       </c>
       <c r="I2">
-        <v>0.2335023891247369</v>
+        <v>0.2130751263197567</v>
       </c>
       <c r="J2">
-        <v>0.2335023891247369</v>
+        <v>0.178861592654224</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.8778600063375</v>
+        <v>47.890007</v>
       </c>
       <c r="N2">
-        <v>47.8778600063375</v>
+        <v>95.78001399999999</v>
       </c>
       <c r="O2">
-        <v>0.2724896296719846</v>
+        <v>0.2671069186198896</v>
       </c>
       <c r="P2">
-        <v>0.2724896296719846</v>
+        <v>0.2091536763465644</v>
       </c>
       <c r="Q2">
-        <v>294.4348470947506</v>
+        <v>321.610274679221</v>
       </c>
       <c r="R2">
-        <v>294.4348470947506</v>
+        <v>1286.441098716884</v>
       </c>
       <c r="S2">
-        <v>0.0636269795401232</v>
+        <v>0.05691384042581394</v>
       </c>
       <c r="T2">
-        <v>0.0636269795401232</v>
+        <v>0.03740955966083261</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.14970775752669</v>
+        <v>6.715603</v>
       </c>
       <c r="H3">
-        <v>6.14970775752669</v>
+        <v>13.431206</v>
       </c>
       <c r="I3">
-        <v>0.2335023891247369</v>
+        <v>0.2130751263197567</v>
       </c>
       <c r="J3">
-        <v>0.2335023891247369</v>
+        <v>0.178861592654224</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.8890265335089</v>
+        <v>24.489942</v>
       </c>
       <c r="N3">
-        <v>22.8890265335089</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O3">
-        <v>0.1302694473571393</v>
+        <v>0.136592858397365</v>
       </c>
       <c r="P3">
-        <v>0.1302694473571393</v>
+        <v>0.1604351844054064</v>
       </c>
       <c r="Q3">
-        <v>140.7608240353539</v>
+        <v>164.464727965026</v>
       </c>
       <c r="R3">
-        <v>140.7608240353539</v>
+        <v>986.7883677901561</v>
       </c>
       <c r="S3">
-        <v>0.03041822718785117</v>
+        <v>0.02910454055739518</v>
       </c>
       <c r="T3">
-        <v>0.03041822718785117</v>
+        <v>0.02869569260052511</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.14970775752669</v>
+        <v>6.715603</v>
       </c>
       <c r="H4">
-        <v>6.14970775752669</v>
+        <v>13.431206</v>
       </c>
       <c r="I4">
-        <v>0.2335023891247369</v>
+        <v>0.2130751263197567</v>
       </c>
       <c r="J4">
-        <v>0.2335023891247369</v>
+        <v>0.178861592654224</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.2992224984225</v>
+        <v>20.62554866666667</v>
       </c>
       <c r="N4">
-        <v>20.2992224984225</v>
+        <v>61.876646</v>
       </c>
       <c r="O4">
-        <v>0.1155299677239583</v>
+        <v>0.1150391719340928</v>
       </c>
       <c r="P4">
-        <v>0.1155299677239583</v>
+        <v>0.1351192952518773</v>
       </c>
       <c r="Q4">
-        <v>124.8342860703091</v>
+        <v>138.5129965025127</v>
       </c>
       <c r="R4">
-        <v>124.8342860703091</v>
+        <v>831.077979015076</v>
       </c>
       <c r="S4">
-        <v>0.026976523479048</v>
+        <v>0.02451198609157702</v>
       </c>
       <c r="T4">
-        <v>0.026976523479048</v>
+        <v>0.0241676523470671</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.14970775752669</v>
+        <v>6.715603</v>
       </c>
       <c r="H5">
-        <v>6.14970775752669</v>
+        <v>13.431206</v>
       </c>
       <c r="I5">
-        <v>0.2335023891247369</v>
+        <v>0.2130751263197567</v>
       </c>
       <c r="J5">
-        <v>0.2335023891247369</v>
+        <v>0.178861592654224</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.8331039061868</v>
+        <v>21.83893633333333</v>
       </c>
       <c r="N5">
-        <v>21.8331039061868</v>
+        <v>65.51680899999999</v>
       </c>
       <c r="O5">
-        <v>0.1242598227489555</v>
+        <v>0.1218068518956912</v>
       </c>
       <c r="P5">
-        <v>0.1242598227489555</v>
+        <v>0.1430682758601985</v>
       </c>
       <c r="Q5">
-        <v>134.2672084627632</v>
+        <v>146.6616263569423</v>
       </c>
       <c r="R5">
-        <v>134.2672084627632</v>
+        <v>879.9697581416539</v>
       </c>
       <c r="S5">
-        <v>0.02901496548409743</v>
+        <v>0.0259540103542863</v>
       </c>
       <c r="T5">
-        <v>0.02901496548409743</v>
+        <v>0.02558941967864898</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.14970775752669</v>
+        <v>6.715603</v>
       </c>
       <c r="H6">
-        <v>6.14970775752669</v>
+        <v>13.431206</v>
       </c>
       <c r="I6">
-        <v>0.2335023891247369</v>
+        <v>0.2130751263197567</v>
       </c>
       <c r="J6">
-        <v>0.2335023891247369</v>
+        <v>0.178861592654224</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.7756641212386</v>
+        <v>32.40337933333333</v>
       </c>
       <c r="N6">
-        <v>31.7756641212386</v>
+        <v>97.210138</v>
       </c>
       <c r="O6">
-        <v>0.1808464068325435</v>
+        <v>0.1807301219771816</v>
       </c>
       <c r="P6">
-        <v>0.1808464068325435</v>
+        <v>0.2122766211002732</v>
       </c>
       <c r="Q6">
-        <v>195.4110481469435</v>
+        <v>217.6082314610713</v>
       </c>
       <c r="R6">
-        <v>195.4110481469435</v>
+        <v>1305.649388766428</v>
       </c>
       <c r="S6">
-        <v>0.04222806806002304</v>
+        <v>0.038509093570073</v>
       </c>
       <c r="T6">
-        <v>0.04222806806002304</v>
+        <v>0.03796813453325212</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.14970775752669</v>
+        <v>6.715603</v>
       </c>
       <c r="H7">
-        <v>6.14970775752669</v>
+        <v>13.431206</v>
       </c>
       <c r="I7">
-        <v>0.2335023891247369</v>
+        <v>0.2130751263197567</v>
       </c>
       <c r="J7">
-        <v>0.2335023891247369</v>
+        <v>0.178861592654224</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>31.0303784479615</v>
+        <v>32.0437125</v>
       </c>
       <c r="N7">
-        <v>31.0303784479615</v>
+        <v>64.087425</v>
       </c>
       <c r="O7">
-        <v>0.1766047256654188</v>
+        <v>0.1787240771757799</v>
       </c>
       <c r="P7">
-        <v>0.1766047256654188</v>
+        <v>0.1399469470356803</v>
       </c>
       <c r="Q7">
-        <v>190.8277590604178</v>
+        <v>215.1928517961375</v>
       </c>
       <c r="R7">
-        <v>190.8277590604178</v>
+        <v>860.77140718455</v>
       </c>
       <c r="S7">
-        <v>0.04123762537359403</v>
+        <v>0.03808165532061124</v>
       </c>
       <c r="T7">
-        <v>0.04123762537359403</v>
+        <v>0.02503113383389811</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.87227474238038</v>
+        <v>2.040110666666667</v>
       </c>
       <c r="H8">
-        <v>1.87227474238038</v>
+        <v>6.120331999999999</v>
       </c>
       <c r="I8">
-        <v>0.07108965867665015</v>
+        <v>0.06472938290221787</v>
       </c>
       <c r="J8">
-        <v>0.07108965867665015</v>
+        <v>0.08150365120545483</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.8778600063375</v>
+        <v>47.890007</v>
       </c>
       <c r="N8">
-        <v>47.8778600063375</v>
+        <v>95.78001399999999</v>
       </c>
       <c r="O8">
-        <v>0.2724896296719846</v>
+        <v>0.2671069186198896</v>
       </c>
       <c r="P8">
-        <v>0.2724896296719846</v>
+        <v>0.2091536763465644</v>
       </c>
       <c r="Q8">
-        <v>89.64050800908944</v>
+        <v>97.70091410744132</v>
       </c>
       <c r="R8">
-        <v>89.64050800908944</v>
+        <v>586.2054846446479</v>
       </c>
       <c r="S8">
-        <v>0.01937119476630818</v>
+        <v>0.01728966601117838</v>
       </c>
       <c r="T8">
-        <v>0.01937119476630818</v>
+        <v>0.01704678828528897</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.87227474238038</v>
+        <v>2.040110666666667</v>
       </c>
       <c r="H9">
-        <v>1.87227474238038</v>
+        <v>6.120331999999999</v>
       </c>
       <c r="I9">
-        <v>0.07108965867665015</v>
+        <v>0.06472938290221787</v>
       </c>
       <c r="J9">
-        <v>0.07108965867665015</v>
+        <v>0.08150365120545483</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>22.8890265335089</v>
+        <v>24.489942</v>
       </c>
       <c r="N9">
-        <v>22.8890265335089</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O9">
-        <v>0.1302694473571393</v>
+        <v>0.136592858397365</v>
       </c>
       <c r="P9">
-        <v>0.1302694473571393</v>
+        <v>0.1604351844054064</v>
       </c>
       <c r="Q9">
-        <v>42.85454625636306</v>
+        <v>49.962191900248</v>
       </c>
       <c r="R9">
-        <v>42.85454625636306</v>
+        <v>449.659727102232</v>
       </c>
       <c r="S9">
-        <v>0.00926081054861488</v>
+        <v>0.008841571432911461</v>
       </c>
       <c r="T9">
-        <v>0.00926081054861488</v>
+        <v>0.01307605331086107</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.87227474238038</v>
+        <v>2.040110666666667</v>
       </c>
       <c r="H10">
-        <v>1.87227474238038</v>
+        <v>6.120331999999999</v>
       </c>
       <c r="I10">
-        <v>0.07108965867665015</v>
+        <v>0.06472938290221787</v>
       </c>
       <c r="J10">
-        <v>0.07108965867665015</v>
+        <v>0.08150365120545483</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.2992224984225</v>
+        <v>20.62554866666667</v>
       </c>
       <c r="N10">
-        <v>20.2992224984225</v>
+        <v>61.876646</v>
       </c>
       <c r="O10">
-        <v>0.1155299677239583</v>
+        <v>0.1150391719340928</v>
       </c>
       <c r="P10">
-        <v>0.1155299677239583</v>
+        <v>0.1351192952518773</v>
       </c>
       <c r="Q10">
-        <v>38.005721573756</v>
+        <v>42.07840184071911</v>
       </c>
       <c r="R10">
-        <v>38.005721573756</v>
+        <v>378.705616566472</v>
       </c>
       <c r="S10">
-        <v>0.008212985972420603</v>
+        <v>0.007446414608875965</v>
       </c>
       <c r="T10">
-        <v>0.008212985972420603</v>
+        <v>0.01101271591133587</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.87227474238038</v>
+        <v>2.040110666666667</v>
       </c>
       <c r="H11">
-        <v>1.87227474238038</v>
+        <v>6.120331999999999</v>
       </c>
       <c r="I11">
-        <v>0.07108965867665015</v>
+        <v>0.06472938290221787</v>
       </c>
       <c r="J11">
-        <v>0.07108965867665015</v>
+        <v>0.08150365120545483</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.8331039061868</v>
+        <v>21.83893633333333</v>
       </c>
       <c r="N11">
-        <v>21.8331039061868</v>
+        <v>65.51680899999999</v>
       </c>
       <c r="O11">
-        <v>0.1242598227489555</v>
+        <v>0.1218068518956912</v>
       </c>
       <c r="P11">
-        <v>0.1242598227489555</v>
+        <v>0.1430682758601985</v>
       </c>
       <c r="Q11">
-        <v>40.87756899131996</v>
+        <v>44.55384696228755</v>
       </c>
       <c r="R11">
-        <v>40.87756899131996</v>
+        <v>400.9846226605879</v>
       </c>
       <c r="S11">
-        <v>0.008833588386444291</v>
+        <v>0.00788448235646994</v>
       </c>
       <c r="T11">
-        <v>0.008833588386444291</v>
+        <v>0.01166058685427541</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.87227474238038</v>
+        <v>2.040110666666667</v>
       </c>
       <c r="H12">
-        <v>1.87227474238038</v>
+        <v>6.120331999999999</v>
       </c>
       <c r="I12">
-        <v>0.07108965867665015</v>
+        <v>0.06472938290221787</v>
       </c>
       <c r="J12">
-        <v>0.07108965867665015</v>
+        <v>0.08150365120545483</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>31.7756641212386</v>
+        <v>32.40337933333333</v>
       </c>
       <c r="N12">
-        <v>31.7756641212386</v>
+        <v>97.210138</v>
       </c>
       <c r="O12">
-        <v>0.1808464068325435</v>
+        <v>0.1807301219771816</v>
       </c>
       <c r="P12">
-        <v>0.1808464068325435</v>
+        <v>0.2122766211002732</v>
       </c>
       <c r="Q12">
-        <v>59.49277335655749</v>
+        <v>66.10647981397956</v>
       </c>
       <c r="R12">
-        <v>59.49277335655749</v>
+        <v>594.958318325816</v>
       </c>
       <c r="S12">
-        <v>0.01285630933462413</v>
+        <v>0.01169854926742553</v>
       </c>
       <c r="T12">
-        <v>0.01285630933462413</v>
+        <v>0.01730131968522916</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.87227474238038</v>
+        <v>2.040110666666667</v>
       </c>
       <c r="H13">
-        <v>1.87227474238038</v>
+        <v>6.120331999999999</v>
       </c>
       <c r="I13">
-        <v>0.07108965867665015</v>
+        <v>0.06472938290221787</v>
       </c>
       <c r="J13">
-        <v>0.07108965867665015</v>
+        <v>0.08150365120545483</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>31.0303784479615</v>
+        <v>32.0437125</v>
       </c>
       <c r="N13">
-        <v>31.0303784479615</v>
+        <v>64.087425</v>
       </c>
       <c r="O13">
-        <v>0.1766047256654188</v>
+        <v>0.1787240771757799</v>
       </c>
       <c r="P13">
-        <v>0.1766047256654188</v>
+        <v>0.1399469470356803</v>
       </c>
       <c r="Q13">
-        <v>58.09739381462281</v>
+        <v>65.37271967084999</v>
       </c>
       <c r="R13">
-        <v>58.09739381462281</v>
+        <v>392.2363180250999</v>
       </c>
       <c r="S13">
-        <v>0.01255476966823806</v>
+        <v>0.01156869922535659</v>
       </c>
       <c r="T13">
-        <v>0.01255476966823806</v>
+        <v>0.01140618715846435</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.154272273841871</v>
+        <v>10.017551</v>
       </c>
       <c r="H14">
-        <v>9.154272273841871</v>
+        <v>30.052653</v>
       </c>
       <c r="I14">
-        <v>0.3475847196192782</v>
+        <v>0.3178405490526472</v>
       </c>
       <c r="J14">
-        <v>0.3475847196192782</v>
+        <v>0.4002072024704813</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>47.8778600063375</v>
+        <v>47.890007</v>
       </c>
       <c r="N14">
-        <v>47.8778600063375</v>
+        <v>95.78001399999999</v>
       </c>
       <c r="O14">
-        <v>0.2724896296719846</v>
+        <v>0.2671069186198896</v>
       </c>
       <c r="P14">
-        <v>0.2724896296719846</v>
+        <v>0.2091536763465644</v>
       </c>
       <c r="Q14">
-        <v>438.2869663868979</v>
+        <v>479.7405875128569</v>
       </c>
       <c r="R14">
-        <v>438.2869663868979</v>
+        <v>2878.443525077142</v>
       </c>
       <c r="S14">
-        <v>0.09471323152869771</v>
+        <v>0.08489740966990644</v>
       </c>
       <c r="T14">
-        <v>0.09471323152869771</v>
+        <v>0.083704807697075</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.154272273841871</v>
+        <v>10.017551</v>
       </c>
       <c r="H15">
-        <v>9.154272273841871</v>
+        <v>30.052653</v>
       </c>
       <c r="I15">
-        <v>0.3475847196192782</v>
+        <v>0.3178405490526472</v>
       </c>
       <c r="J15">
-        <v>0.3475847196192782</v>
+        <v>0.4002072024704813</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>22.8890265335089</v>
+        <v>24.489942</v>
       </c>
       <c r="N15">
-        <v>22.8890265335089</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O15">
-        <v>0.1302694473571393</v>
+        <v>0.136592858397365</v>
       </c>
       <c r="P15">
-        <v>0.1302694473571393</v>
+        <v>0.1604351844054064</v>
       </c>
       <c r="Q15">
-        <v>209.5323809709314</v>
+        <v>245.329242972042</v>
       </c>
       <c r="R15">
-        <v>209.5323809709314</v>
+        <v>2207.963186748378</v>
       </c>
       <c r="S15">
-        <v>0.04527966933458959</v>
+        <v>0.04341474910968897</v>
       </c>
       <c r="T15">
-        <v>0.04527966933458959</v>
+        <v>0.06420731632872348</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.154272273841871</v>
+        <v>10.017551</v>
       </c>
       <c r="H16">
-        <v>9.154272273841871</v>
+        <v>30.052653</v>
       </c>
       <c r="I16">
-        <v>0.3475847196192782</v>
+        <v>0.3178405490526472</v>
       </c>
       <c r="J16">
-        <v>0.3475847196192782</v>
+        <v>0.4002072024704813</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>20.2992224984225</v>
+        <v>20.62554866666667</v>
       </c>
       <c r="N16">
-        <v>20.2992224984225</v>
+        <v>61.876646</v>
       </c>
       <c r="O16">
-        <v>0.1155299677239583</v>
+        <v>0.1150391719340928</v>
       </c>
       <c r="P16">
-        <v>0.1155299677239583</v>
+        <v>0.1351192952518773</v>
       </c>
       <c r="Q16">
-        <v>185.8246096978562</v>
+        <v>206.6174856713153</v>
       </c>
       <c r="R16">
-        <v>185.8246096978562</v>
+        <v>1859.557371041838</v>
       </c>
       <c r="S16">
-        <v>0.0401564514389563</v>
+        <v>0.03656411357009393</v>
       </c>
       <c r="T16">
-        <v>0.0401564514389563</v>
+        <v>0.05407571515253679</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.154272273841871</v>
+        <v>10.017551</v>
       </c>
       <c r="H17">
-        <v>9.154272273841871</v>
+        <v>30.052653</v>
       </c>
       <c r="I17">
-        <v>0.3475847196192782</v>
+        <v>0.3178405490526472</v>
       </c>
       <c r="J17">
-        <v>0.3475847196192782</v>
+        <v>0.4002072024704813</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.8331039061868</v>
+        <v>21.83893633333333</v>
       </c>
       <c r="N17">
-        <v>21.8331039061868</v>
+        <v>65.51680899999999</v>
       </c>
       <c r="O17">
-        <v>0.1242598227489555</v>
+        <v>0.1218068518956912</v>
       </c>
       <c r="P17">
-        <v>0.1242598227489555</v>
+        <v>0.1430682758601985</v>
       </c>
       <c r="Q17">
-        <v>199.8661777403145</v>
+        <v>218.7726585049196</v>
       </c>
       <c r="R17">
-        <v>199.8661777403145</v>
+        <v>1968.953926544277</v>
       </c>
       <c r="S17">
-        <v>0.04319081565013689</v>
+        <v>0.03871515668490098</v>
       </c>
       <c r="T17">
-        <v>0.04319081565013689</v>
+        <v>0.05725695444428514</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>9.154272273841871</v>
+        <v>10.017551</v>
       </c>
       <c r="H18">
-        <v>9.154272273841871</v>
+        <v>30.052653</v>
       </c>
       <c r="I18">
-        <v>0.3475847196192782</v>
+        <v>0.3178405490526472</v>
       </c>
       <c r="J18">
-        <v>0.3475847196192782</v>
+        <v>0.4002072024704813</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>31.7756641212386</v>
+        <v>32.40337933333333</v>
       </c>
       <c r="N18">
-        <v>31.7756641212386</v>
+        <v>97.210138</v>
       </c>
       <c r="O18">
-        <v>0.1808464068325435</v>
+        <v>0.1807301219771816</v>
       </c>
       <c r="P18">
-        <v>0.1808464068325435</v>
+        <v>0.2122766211002732</v>
       </c>
       <c r="Q18">
-        <v>290.8830810479664</v>
+        <v>324.6025050440126</v>
       </c>
       <c r="R18">
-        <v>290.8830810479664</v>
+        <v>2921.422545396114</v>
       </c>
       <c r="S18">
-        <v>0.06285944761304353</v>
+        <v>0.05744336119957928</v>
       </c>
       <c r="T18">
-        <v>0.06285944761304353</v>
+        <v>0.08495463268042668</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>9.154272273841871</v>
+        <v>10.017551</v>
       </c>
       <c r="H19">
-        <v>9.154272273841871</v>
+        <v>30.052653</v>
       </c>
       <c r="I19">
-        <v>0.3475847196192782</v>
+        <v>0.3178405490526472</v>
       </c>
       <c r="J19">
-        <v>0.3475847196192782</v>
+        <v>0.4002072024704813</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>31.0303784479615</v>
+        <v>32.0437125</v>
       </c>
       <c r="N19">
-        <v>31.0303784479615</v>
+        <v>64.087425</v>
       </c>
       <c r="O19">
-        <v>0.1766047256654188</v>
+        <v>0.1787240771757799</v>
       </c>
       <c r="P19">
-        <v>0.1766047256654188</v>
+        <v>0.1399469470356803</v>
       </c>
       <c r="Q19">
-        <v>284.0605330729943</v>
+        <v>320.9995241980874</v>
       </c>
       <c r="R19">
-        <v>284.0605330729943</v>
+        <v>1925.997145188525</v>
       </c>
       <c r="S19">
-        <v>0.06138510405385414</v>
+        <v>0.05680575881847756</v>
       </c>
       <c r="T19">
-        <v>0.06138510405385414</v>
+        <v>0.05600777616743424</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>9.160553944047599</v>
+        <v>12.7442715</v>
       </c>
       <c r="H20">
-        <v>9.160553944047599</v>
+        <v>25.488543</v>
       </c>
       <c r="I20">
-        <v>0.3478232325793348</v>
+        <v>0.4043549417253782</v>
       </c>
       <c r="J20">
-        <v>0.3478232325793348</v>
+        <v>0.3394275536698397</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>47.8778600063375</v>
+        <v>47.890007</v>
       </c>
       <c r="N20">
-        <v>47.8778600063375</v>
+        <v>95.78001399999999</v>
       </c>
       <c r="O20">
-        <v>0.2724896296719846</v>
+        <v>0.2671069186198896</v>
       </c>
       <c r="P20">
-        <v>0.2724896296719846</v>
+        <v>0.2091536763465644</v>
       </c>
       <c r="Q20">
-        <v>438.5877193136138</v>
+        <v>610.3232513449004</v>
       </c>
       <c r="R20">
-        <v>438.5877193136138</v>
+        <v>2441.293005379602</v>
       </c>
       <c r="S20">
-        <v>0.09477822383685551</v>
+        <v>0.1080060025129908</v>
       </c>
       <c r="T20">
-        <v>0.09477822383685551</v>
+        <v>0.07099252070336777</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>9.160553944047599</v>
+        <v>12.7442715</v>
       </c>
       <c r="H21">
-        <v>9.160553944047599</v>
+        <v>25.488543</v>
       </c>
       <c r="I21">
-        <v>0.3478232325793348</v>
+        <v>0.4043549417253782</v>
       </c>
       <c r="J21">
-        <v>0.3478232325793348</v>
+        <v>0.3394275536698397</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>22.8890265335089</v>
+        <v>24.489942</v>
       </c>
       <c r="N21">
-        <v>22.8890265335089</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O21">
-        <v>0.1302694473571393</v>
+        <v>0.136592858397365</v>
       </c>
       <c r="P21">
-        <v>0.1302694473571393</v>
+        <v>0.1604351844054064</v>
       </c>
       <c r="Q21">
-        <v>209.6761622869451</v>
+        <v>312.1064698672531</v>
       </c>
       <c r="R21">
-        <v>209.6761622869451</v>
+        <v>1872.638819203518</v>
       </c>
       <c r="S21">
-        <v>0.04531074028608369</v>
+        <v>0.05523199729736935</v>
       </c>
       <c r="T21">
-        <v>0.04531074028608369</v>
+        <v>0.05445612216529671</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>26</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>9.160553944047599</v>
+        <v>12.7442715</v>
       </c>
       <c r="H22">
-        <v>9.160553944047599</v>
+        <v>25.488543</v>
       </c>
       <c r="I22">
-        <v>0.3478232325793348</v>
+        <v>0.4043549417253782</v>
       </c>
       <c r="J22">
-        <v>0.3478232325793348</v>
+        <v>0.3394275536698397</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>20.2992224984225</v>
+        <v>20.62554866666667</v>
       </c>
       <c r="N22">
-        <v>20.2992224984225</v>
+        <v>61.876646</v>
       </c>
       <c r="O22">
-        <v>0.1155299677239583</v>
+        <v>0.1150391719340928</v>
       </c>
       <c r="P22">
-        <v>0.1155299677239583</v>
+        <v>0.1351192952518773</v>
       </c>
       <c r="Q22">
-        <v>185.952122719024</v>
+        <v>262.857592044463</v>
       </c>
       <c r="R22">
-        <v>185.952122719024</v>
+        <v>1577.145552266778</v>
       </c>
       <c r="S22">
-        <v>0.04018400683353339</v>
+        <v>0.04651665766354585</v>
       </c>
       <c r="T22">
-        <v>0.04018400683353339</v>
+        <v>0.04586321184093749</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>27</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>9.160553944047599</v>
+        <v>12.7442715</v>
       </c>
       <c r="H23">
-        <v>9.160553944047599</v>
+        <v>25.488543</v>
       </c>
       <c r="I23">
-        <v>0.3478232325793348</v>
+        <v>0.4043549417253782</v>
       </c>
       <c r="J23">
-        <v>0.3478232325793348</v>
+        <v>0.3394275536698397</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>21.8331039061868</v>
+        <v>21.83893633333333</v>
       </c>
       <c r="N23">
-        <v>21.8331039061868</v>
+        <v>65.51680899999999</v>
       </c>
       <c r="O23">
-        <v>0.1242598227489555</v>
+        <v>0.1218068518956912</v>
       </c>
       <c r="P23">
-        <v>0.1242598227489555</v>
+        <v>0.1430682758601985</v>
       </c>
       <c r="Q23">
-        <v>200.0033260986205</v>
+        <v>278.3213339032145</v>
       </c>
       <c r="R23">
-        <v>200.0033260986205</v>
+        <v>1669.928003419287</v>
       </c>
       <c r="S23">
-        <v>0.04322045322827685</v>
+        <v>0.049253202500034</v>
       </c>
       <c r="T23">
-        <v>0.04322045322827685</v>
+        <v>0.04856131488298897</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>9.160553944047599</v>
+        <v>12.7442715</v>
       </c>
       <c r="H24">
-        <v>9.160553944047599</v>
+        <v>25.488543</v>
       </c>
       <c r="I24">
-        <v>0.3478232325793348</v>
+        <v>0.4043549417253782</v>
       </c>
       <c r="J24">
-        <v>0.3478232325793348</v>
+        <v>0.3394275536698397</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>31.7756641212386</v>
+        <v>32.40337933333333</v>
       </c>
       <c r="N24">
-        <v>31.7756641212386</v>
+        <v>97.210138</v>
       </c>
       <c r="O24">
-        <v>0.1808464068325435</v>
+        <v>0.1807301219771816</v>
       </c>
       <c r="P24">
-        <v>0.1808464068325435</v>
+        <v>0.2122766211002732</v>
       </c>
       <c r="Q24">
-        <v>291.082685290544</v>
+        <v>412.957463741489</v>
       </c>
       <c r="R24">
-        <v>291.082685290544</v>
+        <v>2477.744782448934</v>
       </c>
       <c r="S24">
-        <v>0.06290258182485277</v>
+        <v>0.07307911794010374</v>
       </c>
       <c r="T24">
-        <v>0.06290258182485277</v>
+        <v>0.0720525342013652</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>9.160553944047599</v>
+        <v>12.7442715</v>
       </c>
       <c r="H25">
-        <v>9.160553944047599</v>
+        <v>25.488543</v>
       </c>
       <c r="I25">
-        <v>0.3478232325793348</v>
+        <v>0.4043549417253782</v>
       </c>
       <c r="J25">
-        <v>0.3478232325793348</v>
+        <v>0.3394275536698397</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>31.0303784479615</v>
+        <v>32.0437125</v>
       </c>
       <c r="N25">
-        <v>31.0303784479615</v>
+        <v>64.087425</v>
       </c>
       <c r="O25">
-        <v>0.1766047256654188</v>
+        <v>0.1787240771757799</v>
       </c>
       <c r="P25">
-        <v>0.1766047256654188</v>
+        <v>0.1399469470356803</v>
       </c>
       <c r="Q25">
-        <v>284.2554556767633</v>
+        <v>408.3737719679437</v>
       </c>
       <c r="R25">
-        <v>284.2554556767633</v>
+        <v>1633.495087871775</v>
       </c>
       <c r="S25">
-        <v>0.0614272265697326</v>
+        <v>0.07226796381133448</v>
       </c>
       <c r="T25">
-        <v>0.0614272265697326</v>
+        <v>0.04750184987588359</v>
       </c>
     </row>
   </sheetData>
